--- a/database/orang/riri/exel_wbs_riri/F2 Riri Database Notel per Apr9 Wbs.xlsx
+++ b/database/orang/riri/exel_wbs_riri/F2 Riri Database Notel per Apr9 Wbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ucup_d\yabuki\database\orang\riri\exel_wbs_riri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2525FBDB-6D73-4595-BB96-F2513F34E03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92438F80-4E37-4315-B950-86D83BA7904B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="12660" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="3195" windowWidth="12660" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="261">
   <si>
     <t>Nama</t>
   </si>
@@ -379,9 +379,6 @@
     <t>Bapak abich</t>
   </si>
   <si>
-    <t>Mas dio</t>
-  </si>
-  <si>
     <t>Bapak esa</t>
   </si>
   <si>
@@ -496,9 +493,6 @@
     <t>Bapak lukiman</t>
   </si>
   <si>
-    <t>Ibu jeni</t>
-  </si>
-  <si>
     <t>Bapak andi</t>
   </si>
   <si>
@@ -806,6 +800,9 @@
   </si>
   <si>
     <t>Bapak angga</t>
+  </si>
+  <si>
+    <t>Ibu Rani</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1128,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C490"/>
+  <dimension ref="A1:C489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C307"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139:XFD139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2670,7 +2667,7 @@
         <v>44613</v>
       </c>
       <c r="C139" s="15">
-        <v>628172301689</v>
+        <v>628172302350</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -2681,7 +2678,7 @@
         <v>44613</v>
       </c>
       <c r="C140" s="15">
-        <v>628172302350</v>
+        <v>628172302608</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -2692,7 +2689,7 @@
         <v>44613</v>
       </c>
       <c r="C141" s="15">
-        <v>628172302608</v>
+        <v>628172301323</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -2703,7 +2700,7 @@
         <v>44613</v>
       </c>
       <c r="C142" s="15">
-        <v>628172301323</v>
+        <v>628172301828</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -2714,29 +2711,29 @@
         <v>44613</v>
       </c>
       <c r="C143" s="15">
-        <v>628172301828</v>
+        <v>6285723189633</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B144" s="5">
         <v>44613</v>
       </c>
       <c r="C144" s="15">
-        <v>6285723189633</v>
+        <v>628172302141</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B145" s="5">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="C145" s="15">
-        <v>628172302141</v>
+        <v>6285723191768</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2747,7 +2744,7 @@
         <v>44614</v>
       </c>
       <c r="C146" s="15">
-        <v>6285723191768</v>
+        <v>6285723187386</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2758,7 +2755,7 @@
         <v>44614</v>
       </c>
       <c r="C147" s="15">
-        <v>6285723187386</v>
+        <v>6285723187255</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2769,7 +2766,7 @@
         <v>44614</v>
       </c>
       <c r="C148" s="15">
-        <v>6285723187255</v>
+        <v>6281323103788</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2780,29 +2777,29 @@
         <v>44614</v>
       </c>
       <c r="C149" s="15">
-        <v>6281323103788</v>
+        <v>628172303355</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="B150" s="5">
         <v>44614</v>
       </c>
       <c r="C150" s="15">
-        <v>628172303355</v>
+        <v>628172303411</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="B151" s="5">
         <v>44614</v>
       </c>
       <c r="C151" s="15">
-        <v>628172303411</v>
+        <v>6285723187068</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2813,7 +2810,7 @@
         <v>44614</v>
       </c>
       <c r="C152" s="15">
-        <v>6285723187068</v>
+        <v>6285723187653</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2824,7 +2821,7 @@
         <v>44614</v>
       </c>
       <c r="C153" s="15">
-        <v>6285723187653</v>
+        <v>6285723187799</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2835,7 +2832,7 @@
         <v>44614</v>
       </c>
       <c r="C154" s="15">
-        <v>6285723187799</v>
+        <v>6285723187965</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2846,7 +2843,7 @@
         <v>44614</v>
       </c>
       <c r="C155" s="15">
-        <v>6285723187965</v>
+        <v>6285723188444</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2857,29 +2854,29 @@
         <v>44614</v>
       </c>
       <c r="C156" s="15">
-        <v>6285723188444</v>
+        <v>6285723187493</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="B157" s="5">
         <v>44614</v>
       </c>
       <c r="C157" s="15">
-        <v>6285723187493</v>
+        <v>6285723188614</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B158" s="5">
         <v>44614</v>
       </c>
       <c r="C158" s="15">
-        <v>6285723188614</v>
+        <v>6285723187403</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2890,18 +2887,18 @@
         <v>44614</v>
       </c>
       <c r="C159" s="15">
-        <v>6285723187403</v>
+        <v>6285723189863</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B160" s="5">
         <v>44614</v>
       </c>
-      <c r="C160" s="15">
-        <v>6285723189863</v>
+      <c r="C160" s="14">
+        <v>6281323103782</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2912,7 +2909,7 @@
         <v>44614</v>
       </c>
       <c r="C161" s="14">
-        <v>6281323103782</v>
+        <v>6285723189193</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2923,7 +2920,7 @@
         <v>44614</v>
       </c>
       <c r="C162" s="14">
-        <v>6285723189193</v>
+        <v>6285723190084</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2931,10 +2928,10 @@
         <v>140</v>
       </c>
       <c r="B163" s="5">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="C163" s="14">
-        <v>6285723190084</v>
+        <v>628172302871</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2945,7 +2942,7 @@
         <v>44615</v>
       </c>
       <c r="C164" s="14">
-        <v>628172302871</v>
+        <v>6285723194808</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2956,7 +2953,7 @@
         <v>44615</v>
       </c>
       <c r="C165" s="14">
-        <v>6285723194808</v>
+        <v>6285723194780</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2967,7 +2964,7 @@
         <v>44615</v>
       </c>
       <c r="C166" s="14">
-        <v>6285723194780</v>
+        <v>6285723194768</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2978,29 +2975,29 @@
         <v>44615</v>
       </c>
       <c r="C167" s="14">
-        <v>6285723194768</v>
+        <v>6285723190980</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="B168" s="5">
         <v>44615</v>
       </c>
       <c r="C168" s="14">
-        <v>6285723190980</v>
+        <v>6285723191562</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="B169" s="5">
         <v>44615</v>
       </c>
       <c r="C169" s="14">
-        <v>6285723191562</v>
+        <v>6285723191677</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -3011,7 +3008,7 @@
         <v>44615</v>
       </c>
       <c r="C170" s="14">
-        <v>6285723191677</v>
+        <v>6285723191805</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -3022,7 +3019,7 @@
         <v>44615</v>
       </c>
       <c r="C171" s="14">
-        <v>6285723191805</v>
+        <v>6285723191973</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -3033,7 +3030,7 @@
         <v>44615</v>
       </c>
       <c r="C172" s="14">
-        <v>6285723191973</v>
+        <v>6285723193859</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -3044,7 +3041,7 @@
         <v>44615</v>
       </c>
       <c r="C173" s="14">
-        <v>6285723193859</v>
+        <v>6285723193836</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -3055,29 +3052,29 @@
         <v>44615</v>
       </c>
       <c r="C174" s="14">
-        <v>6285723193836</v>
+        <v>6285723192307</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="B175" s="5">
         <v>44615</v>
       </c>
       <c r="C175" s="14">
-        <v>6285723192307</v>
+        <v>6285723192663</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B176" s="5">
         <v>44615</v>
       </c>
       <c r="C176" s="14">
-        <v>6285723192663</v>
+        <v>6285723192820</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -3088,7 +3085,7 @@
         <v>44615</v>
       </c>
       <c r="C177" s="14">
-        <v>6285723192820</v>
+        <v>6285723191573</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -3099,7 +3096,7 @@
         <v>44615</v>
       </c>
       <c r="C178" s="14">
-        <v>6285723191573</v>
+        <v>6285723192990</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -3110,7 +3107,7 @@
         <v>44615</v>
       </c>
       <c r="C179" s="14">
-        <v>6285723192990</v>
+        <v>6285723196955</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -3118,10 +3115,10 @@
         <v>155</v>
       </c>
       <c r="B180" s="5">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="C180" s="14">
-        <v>6285723196955</v>
+        <v>6285723190922</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -3132,1394 +3129,1388 @@
         <v>44616</v>
       </c>
       <c r="C181" s="14">
-        <v>6285723190922</v>
+        <v>628172320363</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="B182" s="5">
         <v>44616</v>
       </c>
       <c r="C182" s="14">
-        <v>628172320363</v>
+        <v>6285723194352</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="B183" s="5">
         <v>44616</v>
       </c>
       <c r="C183" s="14">
-        <v>6285723194352</v>
+        <v>6285723197043</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B184" s="5">
         <v>44616</v>
       </c>
       <c r="C184" s="14">
-        <v>6285723197043</v>
+        <v>6285723106701</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B185" s="5">
         <v>44616</v>
       </c>
       <c r="C185" s="14">
-        <v>6285723106701</v>
+        <v>6285723106729</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B186" s="5">
         <v>44616</v>
       </c>
       <c r="C186" s="14">
-        <v>6285723106729</v>
+        <v>6285723106717</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B187" s="5">
         <v>44616</v>
       </c>
       <c r="C187" s="14">
-        <v>6285723106717</v>
+        <v>6285723197207</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B188" s="5">
         <v>44616</v>
       </c>
       <c r="C188" s="14">
-        <v>6285723197207</v>
+        <v>6285723198767</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="B189" s="5">
         <v>44616</v>
       </c>
       <c r="C189" s="14">
-        <v>6285723198767</v>
+        <v>6285723198818</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="B190" s="5">
         <v>44616</v>
       </c>
       <c r="C190" s="14">
-        <v>6285723198818</v>
+        <v>6285723197770</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B191" s="5">
         <v>44616</v>
       </c>
       <c r="C191" s="14">
-        <v>6285723197770</v>
+        <v>6282123125416</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B192" s="5">
         <v>44616</v>
       </c>
       <c r="C192" s="14">
-        <v>6282123125416</v>
+        <v>6282123125153</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B193" s="5">
         <v>44616</v>
       </c>
       <c r="C193" s="14">
-        <v>6282123125153</v>
+        <v>6282123126260</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B194" s="5">
         <v>44616</v>
       </c>
       <c r="C194" s="14">
-        <v>6282123126260</v>
+        <v>6282123125856</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B195" s="5">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="C195" s="14">
-        <v>6282123125856</v>
+        <v>6285723197244</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B196" s="5">
         <v>44617</v>
       </c>
       <c r="C196" s="14">
-        <v>6285723197244</v>
+        <v>6281323128455</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B197" s="5">
         <v>44617</v>
       </c>
       <c r="C197" s="14">
-        <v>6281323128455</v>
+        <v>6281323127585</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198" s="5">
         <v>44617</v>
       </c>
       <c r="C198" s="14">
-        <v>6281323127585</v>
+        <v>628172310934</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B199" s="5">
         <v>44617</v>
       </c>
       <c r="C199" s="14">
-        <v>628172310934</v>
+        <v>6285723199398</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="B200" s="5">
         <v>44617</v>
       </c>
       <c r="C200" s="14">
-        <v>6285723199398</v>
+        <v>6285723191931</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="B201" s="5">
         <v>44617</v>
       </c>
       <c r="C201" s="14">
-        <v>6285723191931</v>
+        <v>6281323128527</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B202" s="5">
         <v>44617</v>
       </c>
       <c r="C202" s="14">
-        <v>6281323128527</v>
+        <v>6281323128886</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B203" s="5">
         <v>44617</v>
       </c>
       <c r="C203" s="14">
-        <v>6281323128886</v>
+        <v>6281323128906</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B204" s="5">
-        <v>44617</v>
+        <v>44621</v>
       </c>
       <c r="C204" s="14">
-        <v>6281323128906</v>
+        <v>6285723104134</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B205" s="5">
         <v>44621</v>
       </c>
       <c r="C205" s="14">
-        <v>6285723104134</v>
+        <v>6285723102262</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B206" s="5">
         <v>44621</v>
       </c>
       <c r="C206" s="14">
-        <v>6285723102262</v>
+        <v>6285723198019</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B207" s="5">
         <v>44621</v>
       </c>
       <c r="C207" s="14">
-        <v>6285723198019</v>
+        <v>6285723105107</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B208" s="5">
         <v>44621</v>
       </c>
       <c r="C208" s="14">
-        <v>6285723105107</v>
+        <v>6285723103902</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B209" s="5">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="C209" s="14">
-        <v>6285723103902</v>
+        <v>6285723200128</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B210" s="5">
         <v>44622</v>
       </c>
       <c r="C210" s="14">
-        <v>6285723200128</v>
+        <v>6285723199406</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B211" s="5">
         <v>44622</v>
       </c>
       <c r="C211" s="14">
-        <v>6285723199406</v>
+        <v>6285723200583</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B212" s="5">
         <v>44622</v>
       </c>
       <c r="C212" s="14">
-        <v>6285723200583</v>
+        <v>6285723200763</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B213" s="5">
-        <v>44622</v>
+        <v>44624</v>
       </c>
       <c r="C213" s="14">
-        <v>6285723200763</v>
+        <v>6285723108002</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B214" s="5">
         <v>44624</v>
       </c>
       <c r="C214" s="14">
-        <v>6285723108002</v>
+        <v>6285723108215</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B215" s="5">
         <v>44624</v>
       </c>
       <c r="C215" s="14">
-        <v>6285723108215</v>
+        <v>6285723107975</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B216" s="5">
         <v>44624</v>
       </c>
       <c r="C216" s="14">
-        <v>6285723107975</v>
+        <v>6285723110419</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B217" s="5">
         <v>44624</v>
       </c>
       <c r="C217" s="14">
-        <v>6285723110419</v>
+        <v>6285723107968</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
-        <v>189</v>
+      <c r="A218" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="B218" s="5">
-        <v>44624</v>
-      </c>
-      <c r="C218" s="14">
-        <v>6285723107968</v>
+        <v>44625</v>
+      </c>
+      <c r="C218" s="15">
+        <v>6285723112253</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B219" s="5">
-        <v>44625</v>
+        <v>44627</v>
       </c>
       <c r="C219" s="15">
-        <v>6285723112253</v>
+        <v>6285723112437</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B220" s="5">
         <v>44627</v>
       </c>
       <c r="C220" s="15">
-        <v>6285723112437</v>
+        <v>6285723112960</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B221" s="5">
         <v>44627</v>
       </c>
       <c r="C221" s="15">
-        <v>6285723112960</v>
+        <v>6285723114153</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B222" s="5">
         <v>44627</v>
       </c>
       <c r="C222" s="15">
-        <v>6285723114153</v>
+        <v>6285723114144</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B223" s="5">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="C223" s="15">
-        <v>6285723114144</v>
+        <v>6285723113332</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B224" s="5">
         <v>44628</v>
       </c>
       <c r="C224" s="15">
-        <v>6285723113332</v>
+        <v>6285723113331</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B225" s="5">
         <v>44628</v>
       </c>
       <c r="C225" s="15">
-        <v>6285723113331</v>
+        <v>6285723112680</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B226" s="5">
         <v>44628</v>
       </c>
       <c r="C226" s="15">
-        <v>6285723112680</v>
+        <v>6285723108104</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B227" s="5">
         <v>44628</v>
       </c>
       <c r="C227" s="15">
-        <v>6285723108104</v>
+        <v>6285723114112</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B228" s="5">
         <v>44628</v>
       </c>
       <c r="C228" s="15">
-        <v>6285723114112</v>
+        <v>6285723112862</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="B229" s="5">
         <v>44628</v>
       </c>
       <c r="C229" s="15">
-        <v>6285723112862</v>
+        <v>6285723112856</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B230" s="5">
         <v>44628</v>
       </c>
       <c r="C230" s="15">
-        <v>6285723112856</v>
+        <v>6285723112255</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B231" s="5">
         <v>44628</v>
       </c>
       <c r="C231" s="15">
-        <v>6285723112255</v>
+        <v>6285723112200</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B232" s="5">
         <v>44628</v>
       </c>
       <c r="C232" s="15">
-        <v>6285723112200</v>
+        <v>6285723111950</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B233" s="5">
         <v>44628</v>
       </c>
       <c r="C233" s="15">
-        <v>6285723111950</v>
+        <v>6285723113395</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B234" s="5">
-        <v>44628</v>
+        <v>44636</v>
       </c>
       <c r="C234" s="15">
-        <v>6285723113395</v>
+        <v>6285723113917</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B235" s="5">
         <v>44636</v>
       </c>
       <c r="C235" s="15">
-        <v>6285723113917</v>
+        <v>6285725100115</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B236" s="5">
         <v>44636</v>
       </c>
       <c r="C236" s="15">
-        <v>6285725100115</v>
+        <v>6285725100223</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B237" s="5">
         <v>44636</v>
       </c>
       <c r="C237" s="15">
-        <v>6285725100223</v>
+        <v>6285725100521</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B238" s="5">
         <v>44636</v>
       </c>
       <c r="C238" s="15">
-        <v>6285725100521</v>
+        <v>6285725100251</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B239" s="5">
         <v>44636</v>
       </c>
       <c r="C239" s="15">
-        <v>6285725100251</v>
+        <v>6285725100230</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="B240" s="5">
         <v>44636</v>
       </c>
       <c r="C240" s="15">
-        <v>6285725100230</v>
+        <v>6285725100473</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="8" t="s">
-        <v>39</v>
+      <c r="A241" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="B241" s="5">
-        <v>44636</v>
-      </c>
-      <c r="C241" s="15">
-        <v>6285725100473</v>
+        <v>44637</v>
+      </c>
+      <c r="C241" s="14">
+        <v>6285725100642</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="B242" s="5">
         <v>44637</v>
       </c>
       <c r="C242" s="14">
-        <v>6285725100642</v>
+        <v>6285725101154</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="B243" s="5">
         <v>44637</v>
       </c>
       <c r="C243" s="14">
-        <v>6285725101154</v>
+        <v>6285725101069</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B244" s="5">
         <v>44637</v>
       </c>
       <c r="C244" s="14">
-        <v>6285725101069</v>
+        <v>6285725101042</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B245" s="5">
         <v>44637</v>
       </c>
       <c r="C245" s="14">
-        <v>6285725101042</v>
+        <v>6285725101059</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B246" s="5">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="C246" s="14">
-        <v>6285725101059</v>
+        <v>6285725105017</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B247" s="5">
         <v>44638</v>
       </c>
       <c r="C247" s="14">
-        <v>6285725105017</v>
+        <v>6285725106086</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B248" s="5">
         <v>44638</v>
       </c>
       <c r="C248" s="14">
-        <v>6285725106086</v>
+        <v>6285725105752</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="B249" s="5">
         <v>44638</v>
       </c>
       <c r="C249" s="14">
-        <v>6285725105752</v>
+        <v>6285725106561</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B250" s="5">
         <v>44638</v>
       </c>
       <c r="C250" s="14">
-        <v>6285725106561</v>
+        <v>6285725106803</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B251" s="5">
         <v>44638</v>
       </c>
       <c r="C251" s="14">
-        <v>6285725106803</v>
+        <v>6285725106692</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B252" s="5">
         <v>44638</v>
       </c>
       <c r="C252" s="14">
-        <v>6285725106692</v>
+        <v>6285725106617</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B253" s="5">
         <v>44638</v>
       </c>
       <c r="C253" s="14">
-        <v>6285725106617</v>
+        <v>6285725106754</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B254" s="5">
         <v>44638</v>
       </c>
       <c r="C254" s="14">
-        <v>6285725106754</v>
+        <v>6285725106834</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B255" s="5">
         <v>44638</v>
       </c>
       <c r="C255" s="14">
-        <v>6285725106834</v>
+        <v>6285725105199</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="B256" s="5">
         <v>44638</v>
       </c>
       <c r="C256" s="14">
-        <v>6285725105199</v>
+        <v>6285725106847</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B257" s="5">
         <v>44638</v>
       </c>
       <c r="C257" s="14">
-        <v>6285725106847</v>
+        <v>6285725105208</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B258" s="5">
         <v>44638</v>
       </c>
       <c r="C258" s="14">
-        <v>6285725105208</v>
+        <v>6285725107181</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B259" s="5">
         <v>44638</v>
       </c>
       <c r="C259" s="14">
-        <v>6285725107181</v>
+        <v>6285725107252</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B260" s="5">
         <v>44638</v>
       </c>
       <c r="C260" s="14">
-        <v>6285725107252</v>
+        <v>6285725110104</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="B261" s="5">
         <v>44638</v>
       </c>
       <c r="C261" s="14">
-        <v>6285725110104</v>
+        <v>6285725111382</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="B262" s="5">
         <v>44638</v>
       </c>
       <c r="C262" s="14">
-        <v>6285725111382</v>
+        <v>6285725111672</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="4" t="s">
-        <v>227</v>
+      <c r="A263" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="B263" s="5">
-        <v>44638</v>
-      </c>
-      <c r="C263" s="14">
-        <v>6285725111672</v>
+        <v>44641</v>
+      </c>
+      <c r="C263" s="15">
+        <v>6285725106598</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="B264" s="5">
         <v>44641</v>
       </c>
       <c r="C264" s="15">
-        <v>6285725106598</v>
+        <v>6285725114343</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B265" s="5">
         <v>44641</v>
       </c>
       <c r="C265" s="15">
-        <v>6285725114343</v>
+        <v>6285725114363</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="B266" s="5">
         <v>44641</v>
       </c>
       <c r="C266" s="15">
-        <v>6285725114363</v>
+        <v>6285725113277</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="8" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="B267" s="5">
         <v>44641</v>
       </c>
       <c r="C267" s="15">
-        <v>6285725113277</v>
+        <v>6285725114004</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="B268" s="5">
         <v>44641</v>
       </c>
       <c r="C268" s="15">
-        <v>6285725114004</v>
+        <v>6285725114467</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B269" s="5">
         <v>44641</v>
       </c>
       <c r="C269" s="15">
-        <v>6285725114467</v>
+        <v>6285725110598</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B270" s="5">
         <v>44641</v>
       </c>
       <c r="C270" s="15">
-        <v>6285725110598</v>
+        <v>6285725111990</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B271" s="5">
         <v>44641</v>
       </c>
       <c r="C271" s="15">
-        <v>6285725111990</v>
+        <v>6285725114134</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B272" s="5">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="C272" s="15">
-        <v>6285725114134</v>
+        <v>6285725114473</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B273" s="5">
         <v>44642</v>
       </c>
       <c r="C273" s="15">
-        <v>6285725114473</v>
+        <v>6285725114745</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B274" s="5">
         <v>44642</v>
       </c>
       <c r="C274" s="15">
-        <v>6285725114745</v>
+        <v>6285725115100</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B275" s="5">
         <v>44642</v>
       </c>
       <c r="C275" s="15">
-        <v>6285725115100</v>
+        <v>6285725116152</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B276" s="5">
         <v>44642</v>
       </c>
       <c r="C276" s="15">
-        <v>6285725116152</v>
+        <v>6285725116170</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B277" s="5">
         <v>44642</v>
       </c>
       <c r="C277" s="15">
-        <v>6285725116170</v>
+        <v>6285725116080</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B278" s="5">
         <v>44642</v>
       </c>
       <c r="C278" s="15">
-        <v>6285725116080</v>
+        <v>6285725116124</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B279" s="5">
         <v>44642</v>
       </c>
       <c r="C279" s="15">
-        <v>6285725116124</v>
+        <v>6285725115013</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="B280" s="5">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C280" s="15">
-        <v>6285725115013</v>
+        <v>6285725116341</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="8" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="B281" s="5">
         <v>44643</v>
       </c>
       <c r="C281" s="15">
-        <v>6285725116341</v>
+        <v>6285725114329</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="B282" s="5">
         <v>44643</v>
       </c>
       <c r="C282" s="15">
-        <v>6285725114329</v>
+        <v>6285725120014</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="B283" s="5">
         <v>44643</v>
       </c>
       <c r="C283" s="15">
-        <v>6285725120014</v>
+        <v>6285725116332</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="s">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="B284" s="5">
         <v>44643</v>
       </c>
       <c r="C284" s="15">
-        <v>6285725116332</v>
+        <v>6285725120258</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="8" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B285" s="5">
         <v>44643</v>
       </c>
       <c r="C285" s="15">
-        <v>6285725120258</v>
+        <v>6285725119535</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="B286" s="5">
         <v>44643</v>
       </c>
       <c r="C286" s="15">
-        <v>6285725119535</v>
+        <v>6285725119636</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B287" s="5">
         <v>44643</v>
       </c>
       <c r="C287" s="15">
-        <v>6285725119636</v>
+        <v>6285725120655</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B288" s="5">
         <v>44643</v>
       </c>
       <c r="C288" s="15">
-        <v>6285725120655</v>
+        <v>6285725120783</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B289" s="5">
         <v>44643</v>
       </c>
       <c r="C289" s="15">
-        <v>6285725120783</v>
+        <v>6285725120580</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B290" s="5">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C290" s="15">
-        <v>6285725120580</v>
+        <v>6285725122071</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="8" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="B291" s="5">
         <v>44644</v>
       </c>
       <c r="C291" s="15">
-        <v>6285725122071</v>
+        <v>6285725122234</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="8" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="B292" s="5">
         <v>44644</v>
       </c>
       <c r="C292" s="15">
-        <v>6285725122234</v>
+        <v>6285725122122</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B293" s="5">
         <v>44644</v>
       </c>
       <c r="C293" s="15">
-        <v>6285725122122</v>
+        <v>6285725122243</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B294" s="5">
         <v>44644</v>
       </c>
       <c r="C294" s="15">
-        <v>6285725122243</v>
+        <v>6285725121144</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B295" s="5">
         <v>44644</v>
       </c>
       <c r="C295" s="15">
-        <v>6285725121144</v>
+        <v>6285725121852</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B296" s="5">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="C296" s="15">
-        <v>6285725121852</v>
+        <v>6285725122488</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="8" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="B297" s="5">
         <v>44646</v>
       </c>
       <c r="C297" s="15">
-        <v>6285725122488</v>
+        <v>6285725126201</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="B298" s="5">
         <v>44646</v>
       </c>
       <c r="C298" s="15">
-        <v>6285725126201</v>
+        <v>6285725127654</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B299" s="5">
         <v>44646</v>
       </c>
       <c r="C299" s="15">
-        <v>6285725127654</v>
+        <v>6285725126009</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B300" s="5">
         <v>44646</v>
       </c>
       <c r="C300" s="15">
-        <v>6285725126009</v>
+        <v>6285725127314</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B301" s="5">
         <v>44646</v>
       </c>
       <c r="C301" s="15">
-        <v>6285725127314</v>
+        <v>6285725127631</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B302" s="5">
         <v>44646</v>
       </c>
       <c r="C302" s="15">
-        <v>6285725127631</v>
+        <v>6285725127661</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B303" s="5">
         <v>44646</v>
       </c>
       <c r="C303" s="15">
-        <v>6285725127661</v>
+        <v>6285725127716</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B304" s="5">
         <v>44646</v>
       </c>
       <c r="C304" s="15">
-        <v>6285725127716</v>
+        <v>6285725127731</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="8" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="B305" s="5">
         <v>44646</v>
       </c>
       <c r="C305" s="15">
-        <v>6285725127731</v>
+        <v>6285725127988</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="8" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="B306" s="5">
         <v>44646</v>
       </c>
       <c r="C306" s="15">
-        <v>6285725127988</v>
+        <v>6285725127893</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B307" s="5">
-        <v>44646</v>
-      </c>
-      <c r="C307" s="15">
-        <v>6285725127893</v>
-      </c>
+      <c r="A307" s="9"/>
+      <c r="B307" s="10"/>
+      <c r="C307" s="11"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="9"/>
@@ -5202,9 +5193,9 @@
       <c r="C443" s="11"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A444" s="9"/>
-      <c r="B444" s="10"/>
-      <c r="C444" s="11"/>
+      <c r="A444" s="4"/>
+      <c r="B444" s="5"/>
+      <c r="C444" s="6"/>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
@@ -5363,12 +5354,12 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
-      <c r="B476" s="5"/>
+      <c r="B476" s="12"/>
       <c r="C476" s="6"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
-      <c r="B477" s="12"/>
+      <c r="B477" s="5"/>
       <c r="C477" s="6"/>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -5430,11 +5421,6 @@
       <c r="A489" s="4"/>
       <c r="B489" s="5"/>
       <c r="C489" s="6"/>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A490" s="4"/>
-      <c r="B490" s="5"/>
-      <c r="C490" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/orang/riri/exel_wbs_riri/F2 Riri Database Notel per Apr9 Wbs.xlsx
+++ b/database/orang/riri/exel_wbs_riri/F2 Riri Database Notel per Apr9 Wbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ucup_d\yabuki\database\orang\riri\exel_wbs_riri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92438F80-4E37-4315-B950-86D83BA7904B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84201007-A5E3-4BD4-8831-01F7BDF4C6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="3195" windowWidth="12660" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,9 +385,6 @@
     <t>Bapak nandang</t>
   </si>
   <si>
-    <t>Bapak sumati</t>
-  </si>
-  <si>
     <t>Bapak iban</t>
   </si>
   <si>
@@ -803,6 +800,9 @@
   </si>
   <si>
     <t>Ibu Rani</t>
+  </si>
+  <si>
+    <t>Bapak Jumadi</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:C489"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139:XFD139"/>
+      <selection activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="B141" s="5">
         <v>44613</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B142" s="5">
         <v>44613</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B143" s="5">
         <v>44613</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B145" s="5">
         <v>44614</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B146" s="5">
         <v>44614</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B147" s="5">
         <v>44614</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B148" s="5">
         <v>44614</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B149" s="5">
         <v>44614</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B151" s="5">
         <v>44614</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B152" s="5">
         <v>44614</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B153" s="5">
         <v>44614</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B154" s="5">
         <v>44614</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B155" s="5">
         <v>44614</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B156" s="5">
         <v>44614</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B158" s="5">
         <v>44614</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B159" s="5">
         <v>44614</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B160" s="5">
         <v>44614</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B161" s="5">
         <v>44614</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B162" s="5">
         <v>44614</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B163" s="5">
         <v>44615</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B164" s="5">
         <v>44615</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B165" s="5">
         <v>44615</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B166" s="5">
         <v>44615</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B167" s="5">
         <v>44615</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B169" s="5">
         <v>44615</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B170" s="5">
         <v>44615</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B171" s="5">
         <v>44615</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B172" s="5">
         <v>44615</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B173" s="5">
         <v>44615</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B174" s="5">
         <v>44615</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B176" s="5">
         <v>44615</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B177" s="5">
         <v>44615</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B178" s="5">
         <v>44615</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B179" s="5">
         <v>44615</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B180" s="5">
         <v>44616</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B181" s="5">
         <v>44616</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B183" s="5">
         <v>44616</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B184" s="5">
         <v>44616</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B185" s="5">
         <v>44616</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B186" s="5">
         <v>44616</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B187" s="5">
         <v>44616</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B188" s="5">
         <v>44616</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B190" s="5">
         <v>44616</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B191" s="5">
         <v>44616</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B192" s="5">
         <v>44616</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B193" s="5">
         <v>44616</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B194" s="5">
         <v>44616</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B195" s="5">
         <v>44617</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B196" s="5">
         <v>44617</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B197" s="5">
         <v>44617</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B198" s="5">
         <v>44617</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B199" s="5">
         <v>44617</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B201" s="5">
         <v>44617</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B202" s="5">
         <v>44617</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B203" s="5">
         <v>44617</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B204" s="5">
         <v>44621</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B205" s="5">
         <v>44621</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B206" s="5">
         <v>44621</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B207" s="5">
         <v>44621</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B208" s="5">
         <v>44621</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B209" s="5">
         <v>44622</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B210" s="5">
         <v>44622</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B211" s="5">
         <v>44622</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B212" s="5">
         <v>44622</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B213" s="5">
         <v>44624</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B214" s="5">
         <v>44624</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B215" s="5">
         <v>44624</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B216" s="5">
         <v>44624</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B217" s="5">
         <v>44624</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B218" s="5">
         <v>44625</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B219" s="5">
         <v>44627</v>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B220" s="5">
         <v>44627</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B221" s="5">
         <v>44627</v>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B222" s="5">
         <v>44627</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B223" s="5">
         <v>44628</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B224" s="5">
         <v>44628</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B225" s="5">
         <v>44628</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B226" s="5">
         <v>44628</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B227" s="5">
         <v>44628</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B228" s="5">
         <v>44628</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B229" s="5">
         <v>44628</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B230" s="5">
         <v>44628</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B231" s="5">
         <v>44628</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B232" s="5">
         <v>44628</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B233" s="5">
         <v>44628</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B234" s="5">
         <v>44636</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B235" s="5">
         <v>44636</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B236" s="5">
         <v>44636</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B237" s="5">
         <v>44636</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B238" s="5">
         <v>44636</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B239" s="5">
         <v>44636</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B241" s="5">
         <v>44637</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B243" s="5">
         <v>44637</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B244" s="5">
         <v>44637</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B245" s="5">
         <v>44637</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B246" s="5">
         <v>44638</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B247" s="5">
         <v>44638</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B248" s="5">
         <v>44638</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B249" s="5">
         <v>44638</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B250" s="5">
         <v>44638</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B251" s="5">
         <v>44638</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B252" s="5">
         <v>44638</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B253" s="5">
         <v>44638</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B254" s="5">
         <v>44638</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B255" s="5">
         <v>44638</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B256" s="5">
         <v>44638</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B257" s="5">
         <v>44638</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B258" s="5">
         <v>44638</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B259" s="5">
         <v>44638</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B260" s="5">
         <v>44638</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B262" s="5">
         <v>44638</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B263" s="5">
         <v>44641</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B266" s="5">
         <v>44641</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B268" s="5">
         <v>44641</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B269" s="5">
         <v>44641</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B270" s="5">
         <v>44641</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B271" s="5">
         <v>44641</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B272" s="5">
         <v>44642</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B273" s="5">
         <v>44642</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B274" s="5">
         <v>44642</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B275" s="5">
         <v>44642</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B276" s="5">
         <v>44642</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B277" s="5">
         <v>44642</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B278" s="5">
         <v>44642</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B279" s="5">
         <v>44642</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B281" s="5">
         <v>44643</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B282" s="5">
         <v>44643</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B283" s="5">
         <v>44643</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B286" s="5">
         <v>44643</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B287" s="5">
         <v>44643</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B288" s="5">
         <v>44643</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B289" s="5">
         <v>44643</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B290" s="5">
         <v>44644</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B291" s="5">
         <v>44644</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B292" s="5">
         <v>44644</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B293" s="5">
         <v>44644</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B294" s="5">
         <v>44644</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B295" s="5">
         <v>44644</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B296" s="5">
         <v>44646</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B298" s="5">
         <v>44646</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B299" s="5">
         <v>44646</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B300" s="5">
         <v>44646</v>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B301" s="5">
         <v>44646</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B302" s="5">
         <v>44646</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B303" s="5">
         <v>44646</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B304" s="5">
         <v>44646</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B305" s="5">
         <v>44646</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B306" s="5">
         <v>44646</v>
